--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>项目</t>
   </si>
@@ -106,31 +106,55 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.0]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[15.0]</t>
-  </si>
-  <si>
-    <t>高返=[12.5228]</t>
-  </si>
-  <si>
-    <t>过筛镍矿=[8.410955]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[12.38867]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[40.0]</t>
-  </si>
-  <si>
-    <t>铁泥=[0.6015498]</t>
-  </si>
-  <si>
-    <t>干渣粉=[2.504559]</t>
-  </si>
-  <si>
-    <t>重力除尘灰=[0.5714713]</t>
+    <t>55.89999979299971</t>
+  </si>
+  <si>
+    <t>5.369647952730806</t>
+  </si>
+  <si>
+    <t>2.7163775410536792</t>
+  </si>
+  <si>
+    <t>0.7368324361060133</t>
+  </si>
+  <si>
+    <t>3.000000002252146</t>
+  </si>
+  <si>
+    <t>0.04886862143994527</t>
+  </si>
+  <si>
+    <t>0.06735284803531229</t>
+  </si>
+  <si>
+    <t>0.1799999999708083</t>
+  </si>
+  <si>
+    <t>巴西粗粉=9.0240542</t>
+  </si>
+  <si>
+    <t>高品澳粉=12.657859</t>
+  </si>
+  <si>
+    <t>高返=12.522797</t>
+  </si>
+  <si>
+    <t>过筛镍矿=11.425055</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=10.692654</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=40.0</t>
+  </si>
+  <si>
+    <t>铁泥=0.60154981</t>
+  </si>
+  <si>
+    <t>干渣粉=2.5045594</t>
+  </si>
+  <si>
+    <t>重力除尘灰=0.57147126</t>
   </si>
   <si>
     <t>扣水</t>
@@ -609,7 +633,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8</v>
+        <v>9.0240542</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -618,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -656,7 +680,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>12.657859</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -665,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -709,7 +733,7 @@
         <v>500</v>
       </c>
       <c r="N4" s="1">
-        <v>12.5228</v>
+        <v>12.522797</v>
       </c>
       <c r="O4">
         <v>12.5227971518525</v>
@@ -718,7 +742,7 @@
         <v>12.5227971518525</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -762,7 +786,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>8.410955</v>
+        <v>11.425055</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -771,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,7 +836,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>12.38867</v>
+        <v>10.692654</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -821,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,7 +892,7 @@
         <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,7 +936,7 @@
         <v>500</v>
       </c>
       <c r="N8" s="1">
-        <v>0.6015498</v>
+        <v>0.60154981</v>
       </c>
       <c r="O8">
         <v>0.60154980513401</v>
@@ -921,7 +945,7 @@
         <v>0.60154980513401</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +989,7 @@
         <v>100</v>
       </c>
       <c r="N9" s="1">
-        <v>2.504559</v>
+        <v>2.5045594</v>
       </c>
       <c r="O9">
         <v>2.5045594303705</v>
@@ -974,7 +998,7 @@
         <v>2.5045594303705</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,7 +1039,7 @@
         <v>500</v>
       </c>
       <c r="N10" s="1">
-        <v>0.5714713</v>
+        <v>0.57147126</v>
       </c>
       <c r="O10">
         <v>0.571471256027976</v>
@@ -1024,7 +1048,7 @@
         <v>0.571471256027976</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1115,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>447.7530332014543</v>
+        <v>441.5683305871572</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,10 +1177,10 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>492.506582248679</v>
+        <v>489.2084530841882</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1166,35 +1190,35 @@
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14">
-        <v>56.17565633128305</v>
-      </c>
-      <c r="D14">
-        <v>5.199951920097999</v>
-      </c>
-      <c r="E14">
-        <v>2.698241631863957</v>
-      </c>
-      <c r="F14">
-        <v>0.7128133123365088</v>
-      </c>
-      <c r="G14">
-        <v>3.000000273920421</v>
-      </c>
-      <c r="H14">
-        <v>0.04851853091567782</v>
-      </c>
-      <c r="I14">
-        <v>0.06764917045197939</v>
-      </c>
-      <c r="J14">
-        <v>0.1319273653048831</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
       </c>
       <c r="M14" s="1">
-        <v>530.7026698741009</v>
+        <v>527.6535190488044</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1"/>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="214">
   <si>
     <t>项目</t>
   </si>
@@ -73,31 +73,289 @@
     <t>计算结果</t>
   </si>
   <si>
-    <t>巴西粗粉</t>
-  </si>
-  <si>
-    <t>高品澳粉</t>
-  </si>
-  <si>
-    <t>高返</t>
-  </si>
-  <si>
-    <t>过筛镍矿</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉</t>
-  </si>
-  <si>
-    <t>铁泥</t>
-  </si>
-  <si>
-    <t>干渣粉</t>
-  </si>
-  <si>
-    <t>重力除尘灰</t>
+    <t>高宝印粉-13_1</t>
+  </si>
+  <si>
+    <t>朝鲜粉-13_1</t>
+  </si>
+  <si>
+    <t>伊朗粉-13_1</t>
+  </si>
+  <si>
+    <t>海南铁粉-13_1</t>
+  </si>
+  <si>
+    <t>高返-13_1</t>
+  </si>
+  <si>
+    <t>铁泥-13_1</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_1</t>
+  </si>
+  <si>
+    <t>塞阿里昂粉-13_1</t>
+  </si>
+  <si>
+    <t>巴西粗粉-13_1</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_1</t>
+  </si>
+  <si>
+    <t>水洗铁-13_1</t>
+  </si>
+  <si>
+    <t>巴西粗粉-13_3</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_3</t>
+  </si>
+  <si>
+    <t>高返-13_3</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_3</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-13_3</t>
+  </si>
+  <si>
+    <t>巴西卡粉-13_3</t>
+  </si>
+  <si>
+    <t>水洗铁-13_3</t>
+  </si>
+  <si>
+    <t>马来西亚粉（高硅）-13_3</t>
+  </si>
+  <si>
+    <t>印尼粉-13_3</t>
+  </si>
+  <si>
+    <t>塞尔维亚粉-13_3</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_3</t>
+  </si>
+  <si>
+    <t>马来西亚粉（低硅）-13_3</t>
+  </si>
+  <si>
+    <t>PB粉-13_3</t>
+  </si>
+  <si>
+    <t>高品澳粉-13_4</t>
+  </si>
+  <si>
+    <t>巴西精粉-13_4</t>
+  </si>
+  <si>
+    <t>高返-13_4</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_4</t>
+  </si>
+  <si>
+    <t>塞拉利昂（破碎）-13_4</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_4</t>
+  </si>
+  <si>
+    <t>赛尔维亚粉-13_4</t>
+  </si>
+  <si>
+    <t>印尼粉-13_4</t>
+  </si>
+  <si>
+    <t>水洗铁-13_4</t>
+  </si>
+  <si>
+    <t>马来西亚-13_4</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_4</t>
+  </si>
+  <si>
+    <t>高品澳粉-13_5</t>
+  </si>
+  <si>
+    <t>赛尔维亚粉-13_5</t>
+  </si>
+  <si>
+    <t>高返-13_5</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_5</t>
+  </si>
+  <si>
+    <t>过筛塞拉利昂粉-13_5</t>
+  </si>
+  <si>
+    <t>印尼粉-13_5</t>
+  </si>
+  <si>
+    <t>委内瑞拉粉-13_5</t>
+  </si>
+  <si>
+    <t>朝鲜铁粉-13_5</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_5</t>
+  </si>
+  <si>
+    <t>水洗铁-13_5</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_5</t>
+  </si>
+  <si>
+    <t>高品澳粉-13_12</t>
+  </si>
+  <si>
+    <t>赛尔维亚粉-13_12</t>
+  </si>
+  <si>
+    <t>高返-13_12</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_12</t>
+  </si>
+  <si>
+    <t>过筛塞拉利昂粉-13_12</t>
+  </si>
+  <si>
+    <t>印尼粉-13_12</t>
+  </si>
+  <si>
+    <t>委内瑞拉粉-13_12</t>
+  </si>
+  <si>
+    <t>朝鲜铁粉-13_12</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_12</t>
+  </si>
+  <si>
+    <t>水洗铁-13_12</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_12</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-1</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-1</t>
+  </si>
+  <si>
+    <t>高返-14-1</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-1</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-1</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-1</t>
+  </si>
+  <si>
+    <t>氧化铁-14-1</t>
+  </si>
+  <si>
+    <t>铁泥-14-1</t>
+  </si>
+  <si>
+    <t>干渣粉-14-1</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-1</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-3</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-3</t>
+  </si>
+  <si>
+    <t>高返-14-3</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-3</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-3</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-3</t>
+  </si>
+  <si>
+    <t>氧化铁-14-3</t>
+  </si>
+  <si>
+    <t>铁泥-14-3</t>
+  </si>
+  <si>
+    <t>干渣粉-14-3</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-3</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-4</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-4</t>
+  </si>
+  <si>
+    <t>高返-14-4</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-4</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-4</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-4</t>
+  </si>
+  <si>
+    <t>氧化铁-14-4</t>
+  </si>
+  <si>
+    <t>铁泥-14-4</t>
+  </si>
+  <si>
+    <t>干渣粉-14-4</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-4</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-12</t>
+  </si>
+  <si>
+    <t>高返-14-12</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-12</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-12</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-12</t>
+  </si>
+  <si>
+    <t>铁泥-14-12</t>
+  </si>
+  <si>
+    <t>干渣粉-14-12</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-12</t>
   </si>
   <si>
     <t>#</t>
@@ -106,55 +364,292 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>55.89999979299971</t>
-  </si>
-  <si>
-    <t>5.369647952730806</t>
-  </si>
-  <si>
-    <t>2.7163775410536792</t>
-  </si>
-  <si>
-    <t>0.7368324361060133</t>
-  </si>
-  <si>
-    <t>3.000000002252146</t>
-  </si>
-  <si>
-    <t>0.04886862143994527</t>
-  </si>
-  <si>
-    <t>0.06735284803531229</t>
-  </si>
-  <si>
-    <t>0.1799999999708083</t>
-  </si>
-  <si>
-    <t>巴西粗粉=9.0240542</t>
-  </si>
-  <si>
-    <t>高品澳粉=12.657859</t>
-  </si>
-  <si>
-    <t>高返=12.522797</t>
-  </si>
-  <si>
-    <t>过筛镍矿=11.425055</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=10.692654</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=40.0</t>
-  </si>
-  <si>
-    <t>铁泥=0.60154981</t>
-  </si>
-  <si>
-    <t>干渣粉=2.5045594</t>
-  </si>
-  <si>
-    <t>重力除尘灰=0.57147126</t>
+    <t>高宝印粉-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>朝鲜粉-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>伊朗粉-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>海南铁粉-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>铁泥-13_1=[0.6015498]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>塞阿里昂粉-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西粗粉-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_1=[0.1142943]</t>
+  </si>
+  <si>
+    <t>水洗铁-13_1=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西粗粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西卡粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>水洗铁-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>马来西亚粉（高硅）-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>印尼粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>塞尔维亚粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_3=[0.1142943]</t>
+  </si>
+  <si>
+    <t>马来西亚粉（低硅）-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>PB粉-13_3=[0.0]</t>
+  </si>
+  <si>
+    <t>高品澳粉-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西精粉-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-13_4=[12.5228]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>塞拉利昂（破碎）-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>赛尔维亚粉-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>印尼粉-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>水洗铁-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>马来西亚-13_4=[0.0]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_4=[0.1142943]</t>
+  </si>
+  <si>
+    <t>高品澳粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>赛尔维亚粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛塞拉利昂粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>印尼粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>委内瑞拉粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>朝鲜铁粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>水洗铁-13_5=[0.0]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_5=[0.1142943]</t>
+  </si>
+  <si>
+    <t>高品澳粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>赛尔维亚粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-13_12=[8.0]</t>
+  </si>
+  <si>
+    <t>过筛塞拉利昂粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>印尼粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>委内瑞拉粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>朝鲜铁粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>还原铁粉-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>水洗铁-13_12=[0.0]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-13_12=[0.1142943]</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>氧化铁-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>铁泥-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>干渣粉-14-1=[0.6261399]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-1=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>氧化铁-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>铁泥-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>干渣粉-14-3=[0.6261399]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-3=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>高返-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>氧化铁-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>铁泥-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>干渣粉-14-4=[0.6261399]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-4=[0.0]</t>
+  </si>
+  <si>
+    <t>巴西粗粉-14-4=[11.26373]</t>
+  </si>
+  <si>
+    <t>高品澳粉-14-12=[8.390973]</t>
+  </si>
+  <si>
+    <t>高返-14-12=[0.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿-14-12=[0.0]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉-14-12=[16.14492]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉-14-12=[40.0]</t>
+  </si>
+  <si>
+    <t>铁泥-14-12=[0.0]</t>
+  </si>
+  <si>
+    <t>干渣粉-14-12=[0.6261399]</t>
+  </si>
+  <si>
+    <t>重力除尘灰-14-12=[0.0]</t>
   </si>
   <si>
     <t>扣水</t>
@@ -527,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,46 +1098,34 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>59.95</v>
+        <v>53.3775</v>
       </c>
       <c r="D2">
-        <v>11.55</v>
+        <v>5.9</v>
       </c>
       <c r="E2">
+        <v>0.0375</v>
+      </c>
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="F2">
-        <v>0.02</v>
-      </c>
       <c r="G2">
-        <v>0.98</v>
+        <v>3.175</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>2.63</v>
+        <v>0.05425</v>
       </c>
       <c r="M2">
-        <v>566.5</v>
+        <v>910.9948600500001</v>
       </c>
       <c r="N2" s="1">
-        <v>9.0240542</v>
-      </c>
-      <c r="O2">
-        <v>8</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -653,43 +1136,34 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>61.5</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>0.11</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>0.03</v>
-      </c>
-      <c r="K3">
-        <v>7.3</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
+        <v>0.02</v>
       </c>
       <c r="M3">
-        <v>600.5</v>
+        <v>853.351</v>
       </c>
       <c r="N3" s="1">
-        <v>12.657859</v>
-      </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -700,49 +1174,34 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>60.93</v>
       </c>
       <c r="D4">
-        <v>5.5</v>
+        <v>3.21</v>
       </c>
       <c r="E4">
-        <v>11.5</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0.08</v>
       </c>
       <c r="G4">
-        <v>3.1</v>
+        <v>1.19</v>
       </c>
       <c r="H4">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="I4">
-        <v>0.068</v>
-      </c>
-      <c r="J4">
-        <v>0.01</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="M4">
-        <v>500</v>
+        <v>1039.8935286</v>
       </c>
       <c r="N4" s="1">
-        <v>12.522797</v>
-      </c>
-      <c r="O4">
-        <v>12.5227971518525</v>
-      </c>
-      <c r="P4">
-        <v>12.5227971518525</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -753,49 +1212,34 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>49.15</v>
+        <v>45.155</v>
       </c>
       <c r="D5">
-        <v>4.3</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="G5">
-        <v>5.65</v>
+        <v>8.805</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I5">
-        <v>0.036</v>
-      </c>
-      <c r="J5">
-        <v>2.06</v>
-      </c>
-      <c r="K5">
-        <v>31.5</v>
-      </c>
-      <c r="L5">
-        <v>13.63</v>
+        <v>0.2365</v>
       </c>
       <c r="M5">
-        <v>431.41</v>
+        <v>770.6612881</v>
       </c>
       <c r="N5" s="1">
-        <v>11.425055</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,46 +1250,43 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>57.8</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>6.78</v>
+        <v>2.8</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
       </c>
       <c r="I6">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>11.12</v>
-      </c>
-      <c r="L6">
-        <v>9.5</v>
+        <v>0.054</v>
       </c>
       <c r="M6">
-        <v>498.015344202792</v>
+        <v>500</v>
       </c>
       <c r="N6" s="1">
-        <v>10.692654</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
-      </c>
-      <c r="P6">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S6">
+        <v>12.5227971518525</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,43 +1297,43 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>57.87</v>
+        <v>52.92</v>
       </c>
       <c r="D7">
-        <v>5.71</v>
+        <v>2.3</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>0.01</v>
+        <v>2.95</v>
       </c>
       <c r="G7">
-        <v>2.21</v>
+        <v>0.68</v>
+      </c>
+      <c r="H7">
+        <v>1.11</v>
       </c>
       <c r="I7">
-        <v>0.05</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M7">
-        <v>466.846846846847</v>
+        <v>500</v>
       </c>
       <c r="N7" s="1">
-        <v>40</v>
-      </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-      <c r="P7">
-        <v>40</v>
+        <v>0.6015498</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="S7">
+        <v>0.60154980513401</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,49 +1344,43 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>51.9</v>
+        <v>48.4088904761905</v>
       </c>
       <c r="D8">
-        <v>2.3</v>
+        <v>4.14695238095238</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>0.130609523809524</v>
       </c>
       <c r="F8">
-        <v>2.95</v>
+        <v>1.50659047619048</v>
       </c>
       <c r="G8">
-        <v>0.68</v>
+        <v>6.53539047619048</v>
       </c>
       <c r="H8">
-        <v>1.11</v>
+        <v>0.702</v>
       </c>
       <c r="I8">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>4.36</v>
+        <v>0.022125</v>
       </c>
       <c r="M8">
-        <v>500</v>
+        <v>826.1955019349519</v>
       </c>
       <c r="N8" s="1">
-        <v>0.60154981</v>
-      </c>
-      <c r="O8">
-        <v>0.60154980513401</v>
-      </c>
-      <c r="P8">
-        <v>0.60154980513401</v>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>15</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,49 +1391,34 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>0.3</v>
       </c>
       <c r="G9">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9">
-        <v>0.62</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
+        <v>0.14</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>989.88716</v>
       </c>
       <c r="N9" s="1">
-        <v>2.5045594</v>
-      </c>
-      <c r="O9">
-        <v>2.5045594303705</v>
-      </c>
-      <c r="P9">
-        <v>2.5045594303705</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1009,46 +1429,34 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>34.5</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="D10">
-        <v>6.1525</v>
+        <v>2.26</v>
       </c>
       <c r="E10">
-        <v>0.65</v>
+        <v>0.126666666666667</v>
       </c>
       <c r="F10">
-        <v>0.297142857142857</v>
+        <v>0.203333333333333</v>
       </c>
       <c r="G10">
-        <v>2.93666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="H10">
-        <v>0.44</v>
+        <v>0.165</v>
       </c>
       <c r="I10">
-        <v>0.037</v>
-      </c>
-      <c r="K10">
-        <v>2.49166666666667</v>
-      </c>
-      <c r="L10">
-        <v>31.3234615384615</v>
+        <v>0.02</v>
       </c>
       <c r="M10">
-        <v>500</v>
+        <v>1130.5194048</v>
       </c>
       <c r="N10" s="1">
-        <v>0.57147126</v>
-      </c>
-      <c r="O10">
-        <v>0.571471256027976</v>
-      </c>
-      <c r="P10">
-        <v>0.571471256027976</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1058,53 +1466,44 @@
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" t="s">
-        <v>28</v>
+      <c r="C11">
+        <v>35.5541666666667</v>
+      </c>
+      <c r="D11">
+        <v>6.1525</v>
+      </c>
+      <c r="E11">
+        <v>0.65</v>
+      </c>
+      <c r="F11">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G11">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.44</v>
+      </c>
+      <c r="I11">
+        <v>0.037</v>
+      </c>
+      <c r="M11">
+        <v>500</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.1142943</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S11">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1112,37 +1511,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>55.9</v>
+        <v>36.763</v>
       </c>
       <c r="D12">
-        <v>4.5</v>
+        <v>7.52866666666667</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>25.583</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7.328</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.92966666666667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>441.5683305871572</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>11</v>
+        <v>0.6839499999999999</v>
+      </c>
+      <c r="M12">
+        <v>300</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1150,78 +1549,3862 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>62.72</v>
       </c>
       <c r="D13">
-        <v>5.5</v>
+        <v>5.61</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>0.311</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>0.18</v>
-      </c>
-      <c r="M13" s="1">
-        <v>489.2084530841882</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>47</v>
+        <v>0.06</v>
+      </c>
+      <c r="M13">
+        <v>1069.8162944</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>2.75</v>
+      </c>
+      <c r="G14">
+        <v>0.89</v>
+      </c>
+      <c r="I14">
+        <v>0.04</v>
+      </c>
+      <c r="M14">
+        <v>1245.56</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>5.5</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2.8</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>0.054</v>
+      </c>
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S15">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>48.4088904761905</v>
+      </c>
+      <c r="D16">
+        <v>5.1</v>
+      </c>
+      <c r="E16">
+        <v>0.130609523809524</v>
+      </c>
+      <c r="F16">
+        <v>1.50659047619048</v>
+      </c>
+      <c r="G16">
+        <v>6.53539047619048</v>
+      </c>
+      <c r="H16">
+        <v>0.702</v>
+      </c>
+      <c r="I16">
+        <v>0.022125</v>
+      </c>
+      <c r="M16">
+        <v>825.711413030191</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>58.9</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0.01</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>6.41</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.125</v>
+      </c>
+      <c r="M17">
+        <v>1004.658478</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="D18">
+        <v>2.26</v>
+      </c>
+      <c r="E18">
+        <v>0.126666666666667</v>
+      </c>
+      <c r="F18">
+        <v>0.203333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.95</v>
+      </c>
+      <c r="H18">
+        <v>0.165</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+      <c r="M18">
+        <v>1129.8570048</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>7.52866666666667</v>
+      </c>
+      <c r="E19">
+        <v>25.583</v>
+      </c>
+      <c r="F19">
+        <v>7.328</v>
+      </c>
+      <c r="G19">
+        <v>1.92966666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.2</v>
+      </c>
+      <c r="I19">
+        <v>0.6839499999999999</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>11.5</v>
+      </c>
+      <c r="E20">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.04</v>
+      </c>
+      <c r="G20">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.87</v>
+      </c>
+      <c r="I20">
+        <v>0.08</v>
+      </c>
+      <c r="M20">
+        <v>801.67994</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>48.91</v>
+      </c>
+      <c r="D21">
+        <v>2.6</v>
+      </c>
+      <c r="G21">
+        <v>9.06</v>
+      </c>
+      <c r="I21">
+        <v>0.03</v>
+      </c>
+      <c r="M21">
+        <v>834.2588482</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>58.14</v>
+      </c>
+      <c r="D22">
+        <v>9.76</v>
+      </c>
+      <c r="G22">
+        <v>2.72</v>
+      </c>
+      <c r="I22">
+        <v>0.03</v>
+      </c>
+      <c r="M22">
+        <v>991.6951428</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>35.5541666666667</v>
+      </c>
+      <c r="D23">
+        <v>6.1525</v>
+      </c>
+      <c r="E23">
+        <v>0.65</v>
+      </c>
+      <c r="F23">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G23">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.44</v>
+      </c>
+      <c r="I23">
+        <v>0.037</v>
+      </c>
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.1142943</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S23">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="M24">
+        <v>886.96504</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>61.5</v>
+      </c>
+      <c r="D25">
+        <v>3.8</v>
+      </c>
+      <c r="G25">
+        <v>2.7</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <v>1049.00673</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>62.13</v>
+      </c>
+      <c r="D26">
+        <v>3.5</v>
+      </c>
+      <c r="E26">
+        <v>0.02</v>
+      </c>
+      <c r="F26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G26">
+        <v>2.18</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.135</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1059.7526526</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>15</v>
+      </c>
+      <c r="T26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>64.36</v>
+      </c>
+      <c r="D27">
+        <v>3.86</v>
+      </c>
+      <c r="E27">
+        <v>0.05</v>
+      </c>
+      <c r="F27">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G27">
+        <v>1.75</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.078</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1097.7898072</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>5.5</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2.8</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
+      </c>
+      <c r="I28">
+        <v>0.054</v>
+      </c>
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28" s="1">
+        <v>12.5228</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S28">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>48.4088904761905</v>
+      </c>
+      <c r="D29">
+        <v>5.1</v>
+      </c>
+      <c r="E29">
+        <v>0.130609523809524</v>
+      </c>
+      <c r="F29">
+        <v>1.50659047619048</v>
+      </c>
+      <c r="G29">
+        <v>6.53539047619048</v>
+      </c>
+      <c r="H29">
+        <v>0.702</v>
+      </c>
+      <c r="I29">
+        <v>0.022125</v>
+      </c>
+      <c r="J29">
+        <v>2.07</v>
+      </c>
+      <c r="M29">
+        <v>825.711413030191</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>58.9</v>
+      </c>
+      <c r="D30">
+        <v>3.5</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>6.41</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.125</v>
+      </c>
+      <c r="M30">
+        <v>1004.658478</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>69.65000000000001</v>
+      </c>
+      <c r="D31">
+        <v>3.65</v>
+      </c>
+      <c r="E31">
+        <v>3.3</v>
+      </c>
+      <c r="F31">
+        <v>2.7</v>
+      </c>
+      <c r="G31">
+        <v>1.6</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1241.92</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>55.2</v>
+      </c>
+      <c r="D32">
+        <v>10.16</v>
+      </c>
+      <c r="E32">
+        <v>0.6</v>
+      </c>
+      <c r="F32">
+        <v>0.17</v>
+      </c>
+      <c r="G32">
+        <v>1.92</v>
+      </c>
+      <c r="H32">
+        <v>0.003</v>
+      </c>
+      <c r="I32">
+        <v>0.111</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>941.547504</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>48.47</v>
+      </c>
+      <c r="D33">
+        <v>2.95</v>
+      </c>
+      <c r="E33">
+        <v>0.02</v>
+      </c>
+      <c r="F33">
+        <v>0.55</v>
+      </c>
+      <c r="G33">
+        <v>6.68</v>
+      </c>
+      <c r="H33">
+        <v>0.75</v>
+      </c>
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <v>2.19</v>
+      </c>
+      <c r="M33">
+        <v>826.7537594</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>42.23</v>
+      </c>
+      <c r="D34">
+        <v>7.5</v>
+      </c>
+      <c r="E34">
+        <v>20.72</v>
+      </c>
+      <c r="F34">
+        <v>7.5</v>
+      </c>
+      <c r="G34">
+        <v>1.75</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.62</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>300</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>45.48</v>
+      </c>
+      <c r="D35">
+        <v>16.61</v>
+      </c>
+      <c r="E35">
+        <v>0.06</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.19</v>
+      </c>
+      <c r="I35">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.23</v>
+      </c>
+      <c r="M35">
+        <v>775.7532696</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>35.5541666666667</v>
+      </c>
+      <c r="D36">
+        <v>6.1525</v>
+      </c>
+      <c r="E36">
+        <v>0.65</v>
+      </c>
+      <c r="F36">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G36">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.44</v>
+      </c>
+      <c r="I36">
+        <v>0.037</v>
+      </c>
+      <c r="M36">
+        <v>500</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.1142943</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S36">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>61.5</v>
+      </c>
+      <c r="D37">
+        <v>3.62</v>
+      </c>
+      <c r="E37">
+        <v>0.02</v>
+      </c>
+      <c r="F37">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G37">
+        <v>2.2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.135</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>944.28</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>15</v>
+      </c>
+      <c r="T37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="J14" t="s">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>55.2</v>
+      </c>
+      <c r="D38">
+        <v>10.16</v>
+      </c>
+      <c r="E38">
+        <v>0.6</v>
+      </c>
+      <c r="F38">
+        <v>0.21</v>
+      </c>
+      <c r="G38">
+        <v>1.92</v>
+      </c>
+      <c r="H38">
+        <v>0.003</v>
+      </c>
+      <c r="I38">
+        <v>0.09</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>612.08</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="M14" s="1">
-        <v>527.6535190488044</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>4.95</v>
+      </c>
+      <c r="E39">
+        <v>10.5</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3.3</v>
+      </c>
+      <c r="H39">
+        <v>0.29</v>
+      </c>
+      <c r="I39">
+        <v>0.068</v>
+      </c>
+      <c r="J39">
+        <v>0.01</v>
+      </c>
+      <c r="M39">
+        <v>500</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S39">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>48.4088904761905</v>
+      </c>
+      <c r="D40">
+        <v>4.3</v>
+      </c>
+      <c r="E40">
+        <v>0.06</v>
+      </c>
+      <c r="F40">
+        <v>2.03</v>
+      </c>
+      <c r="G40">
+        <v>3.55</v>
+      </c>
+      <c r="H40">
+        <v>0.702</v>
+      </c>
+      <c r="I40">
+        <v>0.036</v>
+      </c>
+      <c r="J40">
+        <v>2.06</v>
+      </c>
+      <c r="M40">
+        <v>473.38</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>15</v>
+      </c>
+      <c r="T40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>58.2</v>
+      </c>
+      <c r="D41">
+        <v>1.65</v>
+      </c>
+      <c r="E41">
+        <v>0.11</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>6.25</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.125</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>925.96</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>48.47</v>
+      </c>
+      <c r="D42">
+        <v>3.1</v>
+      </c>
+      <c r="E42">
+        <v>0.03</v>
+      </c>
+      <c r="F42">
+        <v>0.58</v>
+      </c>
+      <c r="G42">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.75</v>
+      </c>
+      <c r="I42">
+        <v>0.089</v>
+      </c>
+      <c r="J42">
+        <v>2.19</v>
+      </c>
+      <c r="M42">
+        <v>484.27</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>57.26</v>
+      </c>
+      <c r="D43">
+        <v>7.83</v>
+      </c>
+      <c r="E43">
+        <v>1.41</v>
+      </c>
+      <c r="F43">
+        <v>0.26</v>
+      </c>
+      <c r="G43">
+        <v>4.82</v>
+      </c>
+      <c r="I43">
+        <v>0.15</v>
+      </c>
+      <c r="J43">
+        <v>1.11</v>
+      </c>
+      <c r="M43">
+        <v>780.55</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>0.05</v>
+      </c>
+      <c r="M44">
+        <v>434.35</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>86</v>
+      </c>
+      <c r="D45">
+        <v>3.16</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
+      </c>
+      <c r="F45">
+        <v>0.27</v>
+      </c>
+      <c r="G45">
+        <v>1.09</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0.05</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1228.65</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>42.23</v>
+      </c>
+      <c r="D46">
+        <v>7.5</v>
+      </c>
+      <c r="E46">
+        <v>20.72</v>
+      </c>
+      <c r="F46">
+        <v>7.5</v>
+      </c>
+      <c r="G46">
+        <v>1.75</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.62</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>300</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>35.5541666666667</v>
+      </c>
+      <c r="D47">
+        <v>6.1525</v>
+      </c>
+      <c r="E47">
+        <v>0.65</v>
+      </c>
+      <c r="F47">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G47">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H47">
+        <v>0.44</v>
+      </c>
+      <c r="I47">
+        <v>0.037</v>
+      </c>
+      <c r="M47">
+        <v>500</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.1142943</v>
+      </c>
+      <c r="Q47">
+        <v>8</v>
+      </c>
+      <c r="R47">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S47">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>61.5</v>
+      </c>
+      <c r="D48">
+        <v>3.62</v>
+      </c>
+      <c r="E48">
+        <v>0.02</v>
+      </c>
+      <c r="F48">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G48">
+        <v>2.2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.135</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>964.8200000000001</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>8</v>
+      </c>
+      <c r="S48">
+        <v>15</v>
+      </c>
+      <c r="T48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>55.2</v>
+      </c>
+      <c r="D49">
+        <v>10.16</v>
+      </c>
+      <c r="E49">
+        <v>0.6</v>
+      </c>
+      <c r="F49">
+        <v>0.21</v>
+      </c>
+      <c r="G49">
+        <v>1.92</v>
+      </c>
+      <c r="H49">
+        <v>0.003</v>
+      </c>
+      <c r="I49">
+        <v>0.09</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>586.286222115809</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1"/>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>4.95</v>
+      </c>
+      <c r="E50">
+        <v>10.5</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>3.3</v>
+      </c>
+      <c r="H50">
+        <v>0.29</v>
+      </c>
+      <c r="I50">
+        <v>0.068</v>
+      </c>
+      <c r="J50">
+        <v>0.01</v>
+      </c>
+      <c r="M50">
+        <v>500</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S50">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>48.4088904761905</v>
+      </c>
+      <c r="D51">
+        <v>4.3</v>
+      </c>
+      <c r="E51">
+        <v>0.06</v>
+      </c>
+      <c r="F51">
+        <v>2.03</v>
+      </c>
+      <c r="G51">
+        <v>3.55</v>
+      </c>
+      <c r="H51">
+        <v>0.702</v>
+      </c>
+      <c r="I51">
+        <v>0.036</v>
+      </c>
+      <c r="J51">
+        <v>2.06</v>
+      </c>
+      <c r="M51">
+        <v>408.863293435074</v>
+      </c>
+      <c r="N51" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>8</v>
+      </c>
+      <c r="S51">
+        <v>15</v>
+      </c>
+      <c r="T51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>58.2</v>
+      </c>
+      <c r="D52">
+        <v>1.65</v>
+      </c>
+      <c r="E52">
+        <v>0.11</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>6.25</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.125</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>925.96</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>48.47</v>
+      </c>
+      <c r="D53">
+        <v>3.1</v>
+      </c>
+      <c r="E53">
+        <v>0.03</v>
+      </c>
+      <c r="F53">
+        <v>0.58</v>
+      </c>
+      <c r="G53">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="H53">
+        <v>0.75</v>
+      </c>
+      <c r="I53">
+        <v>0.089</v>
+      </c>
+      <c r="J53">
+        <v>2.19</v>
+      </c>
+      <c r="M53">
+        <v>405.863293435074</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54">
+        <v>57.26</v>
+      </c>
+      <c r="D54">
+        <v>7.83</v>
+      </c>
+      <c r="E54">
+        <v>1.41</v>
+      </c>
+      <c r="F54">
+        <v>0.26</v>
+      </c>
+      <c r="G54">
+        <v>4.82</v>
+      </c>
+      <c r="I54">
+        <v>0.15</v>
+      </c>
+      <c r="J54">
+        <v>1.11</v>
+      </c>
+      <c r="M54">
+        <v>910.96</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>0.5</v>
+      </c>
+      <c r="I55">
+        <v>0.05</v>
+      </c>
+      <c r="M55">
+        <v>450.95</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>86</v>
+      </c>
+      <c r="D56">
+        <v>3.16</v>
+      </c>
+      <c r="E56">
+        <v>0.03</v>
+      </c>
+      <c r="F56">
+        <v>0.27</v>
+      </c>
+      <c r="G56">
+        <v>1.09</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.05</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1242.28973578925</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>42.23</v>
+      </c>
+      <c r="D57">
+        <v>7.5</v>
+      </c>
+      <c r="E57">
+        <v>20.72</v>
+      </c>
+      <c r="F57">
+        <v>7.5</v>
+      </c>
+      <c r="G57">
+        <v>1.75</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0.62</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>300</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58">
+        <v>35.5541666666667</v>
+      </c>
+      <c r="D58">
+        <v>6.1525</v>
+      </c>
+      <c r="E58">
+        <v>0.65</v>
+      </c>
+      <c r="F58">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G58">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H58">
+        <v>0.44</v>
+      </c>
+      <c r="I58">
+        <v>0.037</v>
+      </c>
+      <c r="M58">
+        <v>500</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.1142943</v>
+      </c>
+      <c r="Q58">
+        <v>8</v>
+      </c>
+      <c r="R58">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S58">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59">
+        <v>59.95</v>
+      </c>
+      <c r="D59">
+        <v>11.55</v>
+      </c>
+      <c r="E59">
+        <v>0.01</v>
+      </c>
+      <c r="F59">
+        <v>0.02</v>
+      </c>
+      <c r="G59">
+        <v>0.98</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.05</v>
+      </c>
+      <c r="M59">
+        <v>773.95</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>61.5</v>
+      </c>
+      <c r="D60">
+        <v>2.5</v>
+      </c>
+      <c r="E60">
+        <v>0.11</v>
+      </c>
+      <c r="F60">
+        <v>0.08</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>0.03</v>
+      </c>
+      <c r="M60">
+        <v>793.97</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>8</v>
+      </c>
+      <c r="S60">
+        <v>15</v>
+      </c>
+      <c r="T60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>5.5</v>
+      </c>
+      <c r="E61">
+        <v>11.5</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>3.1</v>
+      </c>
+      <c r="H61">
+        <v>0.29</v>
+      </c>
+      <c r="I61">
+        <v>0.068</v>
+      </c>
+      <c r="J61">
+        <v>0.01</v>
+      </c>
+      <c r="M61">
+        <v>500</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S61">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62">
+        <v>49.15</v>
+      </c>
+      <c r="D62">
+        <v>4.3</v>
+      </c>
+      <c r="E62">
+        <v>0.06</v>
+      </c>
+      <c r="F62">
+        <v>0.9</v>
+      </c>
+      <c r="G62">
+        <v>5.65</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0.036</v>
+      </c>
+      <c r="J62">
+        <v>2.06</v>
+      </c>
+      <c r="M62">
+        <v>634.53</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>8</v>
+      </c>
+      <c r="S62">
+        <v>15</v>
+      </c>
+      <c r="T62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>57.8</v>
+      </c>
+      <c r="D63">
+        <v>1.75</v>
+      </c>
+      <c r="E63">
+        <v>0.01</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>6.78</v>
+      </c>
+      <c r="I63">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>746.2</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>8</v>
+      </c>
+      <c r="S63">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>57.87</v>
+      </c>
+      <c r="D64">
+        <v>5.71</v>
+      </c>
+      <c r="E64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>0.01</v>
+      </c>
+      <c r="G64">
+        <v>2.21</v>
+      </c>
+      <c r="I64">
+        <v>0.05</v>
+      </c>
+      <c r="M64">
+        <v>747.1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>5</v>
+      </c>
+      <c r="R64">
+        <v>30</v>
+      </c>
+      <c r="S64">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>69.5</v>
+      </c>
+      <c r="D65">
+        <v>1.75</v>
+      </c>
+      <c r="E65">
+        <v>0.75</v>
+      </c>
+      <c r="F65">
+        <v>0.3</v>
+      </c>
+      <c r="G65">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I65">
+        <v>0.02</v>
+      </c>
+      <c r="J65">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M65">
+        <v>800</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>51.9</v>
+      </c>
+      <c r="D66">
+        <v>2.3</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>2.95</v>
+      </c>
+      <c r="G66">
+        <v>0.68</v>
+      </c>
+      <c r="H66">
+        <v>1.11</v>
+      </c>
+      <c r="I66">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>500</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="S66">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="T66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>3.5</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0.62</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>100</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.6261399</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="S67">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="T67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <v>34.5</v>
+      </c>
+      <c r="D68">
+        <v>6.1525</v>
+      </c>
+      <c r="E68">
+        <v>0.65</v>
+      </c>
+      <c r="F68">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G68">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H68">
+        <v>0.44</v>
+      </c>
+      <c r="I68">
+        <v>0.037</v>
+      </c>
+      <c r="M68">
+        <v>500</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>8</v>
+      </c>
+      <c r="R68">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S68">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69">
+        <v>59.95</v>
+      </c>
+      <c r="D69">
+        <v>11.55</v>
+      </c>
+      <c r="E69">
+        <v>0.01</v>
+      </c>
+      <c r="F69">
+        <v>0.02</v>
+      </c>
+      <c r="G69">
+        <v>0.98</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0.05</v>
+      </c>
+      <c r="M69">
+        <v>773.95</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70">
+        <v>61.5</v>
+      </c>
+      <c r="D70">
+        <v>2.5</v>
+      </c>
+      <c r="E70">
+        <v>0.11</v>
+      </c>
+      <c r="F70">
+        <v>0.08</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>0.03</v>
+      </c>
+      <c r="M70">
+        <v>793.97</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>15</v>
+      </c>
+      <c r="T70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>5.5</v>
+      </c>
+      <c r="E71">
+        <v>11.5</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3.1</v>
+      </c>
+      <c r="H71">
+        <v>0.29</v>
+      </c>
+      <c r="I71">
+        <v>0.068</v>
+      </c>
+      <c r="J71">
+        <v>0.01</v>
+      </c>
+      <c r="M71">
+        <v>500</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S71">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>49.15</v>
+      </c>
+      <c r="D72">
+        <v>4.3</v>
+      </c>
+      <c r="E72">
+        <v>0.06</v>
+      </c>
+      <c r="F72">
+        <v>0.9</v>
+      </c>
+      <c r="G72">
+        <v>5.65</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0.036</v>
+      </c>
+      <c r="J72">
+        <v>2.06</v>
+      </c>
+      <c r="M72">
+        <v>634.53</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>8</v>
+      </c>
+      <c r="S72">
+        <v>15</v>
+      </c>
+      <c r="T72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>57.8</v>
+      </c>
+      <c r="D73">
+        <v>1.75</v>
+      </c>
+      <c r="E73">
+        <v>0.01</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>6.78</v>
+      </c>
+      <c r="I73">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>746.2</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>8</v>
+      </c>
+      <c r="S73">
+        <v>20</v>
+      </c>
+      <c r="T73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74">
+        <v>57.87</v>
+      </c>
+      <c r="D74">
+        <v>5.71</v>
+      </c>
+      <c r="E74">
+        <v>0.01</v>
+      </c>
+      <c r="F74">
+        <v>0.01</v>
+      </c>
+      <c r="G74">
+        <v>2.21</v>
+      </c>
+      <c r="I74">
+        <v>0.05</v>
+      </c>
+      <c r="M74">
+        <v>747.1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>30</v>
+      </c>
+      <c r="S74">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <v>69.5</v>
+      </c>
+      <c r="D75">
+        <v>1.75</v>
+      </c>
+      <c r="E75">
+        <v>0.75</v>
+      </c>
+      <c r="F75">
+        <v>0.3</v>
+      </c>
+      <c r="G75">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I75">
+        <v>0.02</v>
+      </c>
+      <c r="J75">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M75">
+        <v>800</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <v>51.9</v>
+      </c>
+      <c r="D76">
+        <v>2.3</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>2.95</v>
+      </c>
+      <c r="G76">
+        <v>0.68</v>
+      </c>
+      <c r="H76">
+        <v>1.11</v>
+      </c>
+      <c r="I76">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>500</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>6</v>
+      </c>
+      <c r="R76">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="S76">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="T76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>3.5</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0.62</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>100</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.6261399</v>
+      </c>
+      <c r="Q77">
+        <v>7</v>
+      </c>
+      <c r="R77">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="S77">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="T77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>34.5</v>
+      </c>
+      <c r="D78">
+        <v>6.1525</v>
+      </c>
+      <c r="E78">
+        <v>0.65</v>
+      </c>
+      <c r="F78">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G78">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H78">
+        <v>0.44</v>
+      </c>
+      <c r="I78">
+        <v>0.037</v>
+      </c>
+      <c r="M78">
+        <v>500</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>8</v>
+      </c>
+      <c r="R78">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S78">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>59.95</v>
+      </c>
+      <c r="D79">
+        <v>11.55</v>
+      </c>
+      <c r="E79">
+        <v>0.01</v>
+      </c>
+      <c r="F79">
+        <v>0.02</v>
+      </c>
+      <c r="G79">
+        <v>0.98</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0.05</v>
+      </c>
+      <c r="M79">
+        <v>773.95</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <v>61.5</v>
+      </c>
+      <c r="D80">
+        <v>2.5</v>
+      </c>
+      <c r="E80">
+        <v>0.11</v>
+      </c>
+      <c r="F80">
+        <v>0.08</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>0.03</v>
+      </c>
+      <c r="M80">
+        <v>793.97</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>8</v>
+      </c>
+      <c r="S80">
+        <v>15</v>
+      </c>
+      <c r="T80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81">
+        <v>52</v>
+      </c>
+      <c r="D81">
+        <v>5.5</v>
+      </c>
+      <c r="E81">
+        <v>11.5</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>3.1</v>
+      </c>
+      <c r="H81">
+        <v>0.29</v>
+      </c>
+      <c r="I81">
+        <v>0.068</v>
+      </c>
+      <c r="J81">
+        <v>0.01</v>
+      </c>
+      <c r="M81">
+        <v>500</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S81">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>49.15</v>
+      </c>
+      <c r="D82">
+        <v>4.3</v>
+      </c>
+      <c r="E82">
+        <v>0.06</v>
+      </c>
+      <c r="F82">
+        <v>0.9</v>
+      </c>
+      <c r="G82">
+        <v>5.65</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0.036</v>
+      </c>
+      <c r="J82">
+        <v>2.06</v>
+      </c>
+      <c r="M82">
+        <v>634.53</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>8</v>
+      </c>
+      <c r="S82">
+        <v>15</v>
+      </c>
+      <c r="T82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>57.8</v>
+      </c>
+      <c r="D83">
+        <v>1.75</v>
+      </c>
+      <c r="E83">
+        <v>0.01</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>6.78</v>
+      </c>
+      <c r="I83">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>746.2</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>8</v>
+      </c>
+      <c r="S83">
+        <v>20</v>
+      </c>
+      <c r="T83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>57.87</v>
+      </c>
+      <c r="D84">
+        <v>5.71</v>
+      </c>
+      <c r="E84">
+        <v>0.01</v>
+      </c>
+      <c r="F84">
+        <v>0.01</v>
+      </c>
+      <c r="G84">
+        <v>2.21</v>
+      </c>
+      <c r="I84">
+        <v>0.05</v>
+      </c>
+      <c r="M84">
+        <v>747.1</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <v>30</v>
+      </c>
+      <c r="S84">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85">
+        <v>69.5</v>
+      </c>
+      <c r="D85">
+        <v>1.75</v>
+      </c>
+      <c r="E85">
+        <v>0.75</v>
+      </c>
+      <c r="F85">
+        <v>0.3</v>
+      </c>
+      <c r="G85">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I85">
+        <v>0.02</v>
+      </c>
+      <c r="J85">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M85">
+        <v>800</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86">
+        <v>51.9</v>
+      </c>
+      <c r="D86">
+        <v>2.3</v>
+      </c>
+      <c r="E86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>2.95</v>
+      </c>
+      <c r="G86">
+        <v>0.68</v>
+      </c>
+      <c r="H86">
+        <v>1.11</v>
+      </c>
+      <c r="I86">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>500</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>6</v>
+      </c>
+      <c r="R86">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="S86">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="T86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>3.5</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0.62</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>100</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.6261399</v>
+      </c>
+      <c r="Q87">
+        <v>7</v>
+      </c>
+      <c r="R87">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="S87">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="T87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>34.5</v>
+      </c>
+      <c r="D88">
+        <v>6.1525</v>
+      </c>
+      <c r="E88">
+        <v>0.65</v>
+      </c>
+      <c r="F88">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G88">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H88">
+        <v>0.44</v>
+      </c>
+      <c r="I88">
+        <v>0.037</v>
+      </c>
+      <c r="M88">
+        <v>500</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>8</v>
+      </c>
+      <c r="R88">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S88">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89">
+        <v>59.95</v>
+      </c>
+      <c r="D89">
+        <v>11.55</v>
+      </c>
+      <c r="E89">
+        <v>0.01</v>
+      </c>
+      <c r="F89">
+        <v>0.02</v>
+      </c>
+      <c r="G89">
+        <v>0.98</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0.05</v>
+      </c>
+      <c r="M89">
+        <v>566.5</v>
+      </c>
+      <c r="N89" s="1">
+        <v>11.26373</v>
+      </c>
+      <c r="T89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90">
+        <v>61.5</v>
+      </c>
+      <c r="D90">
+        <v>2.5</v>
+      </c>
+      <c r="E90">
+        <v>0.11</v>
+      </c>
+      <c r="F90">
+        <v>0.08</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>0.03</v>
+      </c>
+      <c r="M90">
+        <v>600.5</v>
+      </c>
+      <c r="N90" s="1">
+        <v>8.390973000000001</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>8</v>
+      </c>
+      <c r="S90">
+        <v>15</v>
+      </c>
+      <c r="T90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91">
+        <v>52</v>
+      </c>
+      <c r="D91">
+        <v>5.5</v>
+      </c>
+      <c r="E91">
+        <v>11.5</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3.1</v>
+      </c>
+      <c r="H91">
+        <v>0.29</v>
+      </c>
+      <c r="I91">
+        <v>0.068</v>
+      </c>
+      <c r="J91">
+        <v>0.01</v>
+      </c>
+      <c r="M91">
+        <v>500</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="S91">
+        <v>12.5227971518525</v>
+      </c>
+      <c r="T91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92">
+        <v>49.15</v>
+      </c>
+      <c r="D92">
+        <v>4.3</v>
+      </c>
+      <c r="E92">
+        <v>0.06</v>
+      </c>
+      <c r="F92">
+        <v>0.9</v>
+      </c>
+      <c r="G92">
+        <v>5.65</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0.036</v>
+      </c>
+      <c r="J92">
+        <v>2.06</v>
+      </c>
+      <c r="M92">
+        <v>431.41</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>8</v>
+      </c>
+      <c r="S92">
+        <v>15</v>
+      </c>
+      <c r="T92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93">
+        <v>57.8</v>
+      </c>
+      <c r="D93">
+        <v>1.75</v>
+      </c>
+      <c r="E93">
+        <v>0.01</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>6.78</v>
+      </c>
+      <c r="I93">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>498.015344202792</v>
+      </c>
+      <c r="N93" s="1">
+        <v>16.14492</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>8</v>
+      </c>
+      <c r="S93">
+        <v>20</v>
+      </c>
+      <c r="T93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94">
+        <v>57.87</v>
+      </c>
+      <c r="D94">
+        <v>5.71</v>
+      </c>
+      <c r="E94">
+        <v>0.01</v>
+      </c>
+      <c r="F94">
+        <v>0.01</v>
+      </c>
+      <c r="G94">
+        <v>2.21</v>
+      </c>
+      <c r="I94">
+        <v>0.05</v>
+      </c>
+      <c r="M94">
+        <v>466.846846846847</v>
+      </c>
+      <c r="N94" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q94">
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <v>30</v>
+      </c>
+      <c r="S94">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95">
+        <v>51.9</v>
+      </c>
+      <c r="D95">
+        <v>2.3</v>
+      </c>
+      <c r="E95">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>2.95</v>
+      </c>
+      <c r="G95">
+        <v>0.68</v>
+      </c>
+      <c r="H95">
+        <v>1.11</v>
+      </c>
+      <c r="I95">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>500</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>6</v>
+      </c>
+      <c r="R95">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="S95">
+        <v>0.60154980513401</v>
+      </c>
+      <c r="T95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+      <c r="G96">
+        <v>3.5</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0.62</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>100</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.6261399</v>
+      </c>
+      <c r="Q96">
+        <v>7</v>
+      </c>
+      <c r="R96">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="S96">
+        <v>2.5045594303705</v>
+      </c>
+      <c r="T96" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97">
+        <v>34.5</v>
+      </c>
+      <c r="D97">
+        <v>6.1525</v>
+      </c>
+      <c r="E97">
+        <v>0.65</v>
+      </c>
+      <c r="F97">
+        <v>0.297142857142857</v>
+      </c>
+      <c r="G97">
+        <v>2.93666666666667</v>
+      </c>
+      <c r="H97">
+        <v>0.44</v>
+      </c>
+      <c r="I97">
+        <v>0.037</v>
+      </c>
+      <c r="M97">
+        <v>500</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>8</v>
+      </c>
+      <c r="R97">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="S97">
+        <v>0.571471256027976</v>
+      </c>
+      <c r="T97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" t="s">
+        <v>114</v>
+      </c>
+      <c r="H98" t="s">
+        <v>114</v>
+      </c>
+      <c r="I98" t="s">
+        <v>114</v>
+      </c>
+      <c r="J98" t="s">
+        <v>114</v>
+      </c>
+      <c r="K98" t="s">
+        <v>114</v>
+      </c>
+      <c r="L98" t="s">
+        <v>114</v>
+      </c>
+      <c r="M98" t="s">
+        <v>114</v>
+      </c>
+      <c r="O98" t="s">
+        <v>114</v>
+      </c>
+      <c r="P98" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>55.9</v>
+      </c>
+      <c r="D99">
+        <v>4.5</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>485.0324705378101</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>63</v>
+      </c>
+      <c r="D100">
+        <v>5.5</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>0.3</v>
+      </c>
+      <c r="I100">
+        <v>0.1</v>
+      </c>
+      <c r="J100">
+        <v>0.18</v>
+      </c>
+      <c r="M100" s="1">
+        <v>485.0324705378101</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="M101" s="1">
+        <v>485.0324705378101</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="1" customFormat="1">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="1">
+        <v>55.90000191581774</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5.409476629437501</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2.33272882205</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.7708580982428573</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3.00000032769</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.16553407738</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.067777713201</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.1648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="213">
   <si>
     <t>项目</t>
   </si>
@@ -376,7 +376,7 @@
     <t>海南铁粉-13_1=[0.0]</t>
   </si>
   <si>
-    <t>高返-13_1=[0.0]</t>
+    <t>高返-13_1=[4.174266]</t>
   </si>
   <si>
     <t>铁泥-13_1=[0.6015498]</t>
@@ -403,7 +403,7 @@
     <t>还原铁粉-13_3=[0.0]</t>
   </si>
   <si>
-    <t>高返-13_3=[0.0]</t>
+    <t>高返-13_3=[4.174266]</t>
   </si>
   <si>
     <t>过筛镍矿-13_3=[0.0]</t>
@@ -442,7 +442,7 @@
     <t>巴西精粉-13_4=[0.0]</t>
   </si>
   <si>
-    <t>高返-13_4=[12.5228]</t>
+    <t>高返-13_4=[3.718342]</t>
   </si>
   <si>
     <t>过筛镍矿-13_4=[0.0]</t>
@@ -460,7 +460,7 @@
     <t>印尼粉-13_4=[0.0]</t>
   </si>
   <si>
-    <t>水洗铁-13_4=[0.0]</t>
+    <t>水洗铁-13_4=[0.5526916]</t>
   </si>
   <si>
     <t>马来西亚-13_4=[0.0]</t>
@@ -475,7 +475,7 @@
     <t>赛尔维亚粉-13_5=[0.0]</t>
   </si>
   <si>
-    <t>高返-13_5=[0.0]</t>
+    <t>高返-13_5=[0.1988863]</t>
   </si>
   <si>
     <t>过筛镍矿-13_5=[0.0]</t>
@@ -496,7 +496,7 @@
     <t>还原铁粉-13_5=[0.0]</t>
   </si>
   <si>
-    <t>水洗铁-13_5=[0.0]</t>
+    <t>水洗铁-13_5=[0.5526916]</t>
   </si>
   <si>
     <t>重力除尘灰-13_5=[0.1142943]</t>
@@ -508,7 +508,7 @@
     <t>赛尔维亚粉-13_12=[0.0]</t>
   </si>
   <si>
-    <t>高返-13_12=[0.0]</t>
+    <t>高返-13_12=[0.2570375]</t>
   </si>
   <si>
     <t>过筛镍矿-13_12=[8.0]</t>
@@ -529,7 +529,7 @@
     <t>还原铁粉-13_12=[0.0]</t>
   </si>
   <si>
-    <t>水洗铁-13_12=[0.0]</t>
+    <t>水洗铁-13_12=[1.456512]</t>
   </si>
   <si>
     <t>重力除尘灰-13_12=[0.1142943]</t>
@@ -553,7 +553,7 @@
     <t>FMG低品澳粉-14-1=[0.0]</t>
   </si>
   <si>
-    <t>氧化铁-14-1=[0.0]</t>
+    <t>氧化铁-14-1=[2.076149]</t>
   </si>
   <si>
     <t>铁泥-14-1=[0.0]</t>
@@ -583,7 +583,7 @@
     <t>FMG低品澳粉-14-3=[0.0]</t>
   </si>
   <si>
-    <t>氧化铁-14-3=[0.0]</t>
+    <t>氧化铁-14-3=[1.312939]</t>
   </si>
   <si>
     <t>铁泥-14-3=[0.0]</t>
@@ -625,10 +625,7 @@
     <t>重力除尘灰-14-4=[0.0]</t>
   </si>
   <si>
-    <t>巴西粗粉-14-4=[11.26373]</t>
-  </si>
-  <si>
-    <t>高品澳粉-14-12=[8.390973]</t>
+    <t>高品澳粉-14-12=[15.0]</t>
   </si>
   <si>
     <t>高返-14-12=[0.0]</t>
@@ -637,7 +634,7 @@
     <t>过筛镍矿-14-12=[0.0]</t>
   </si>
   <si>
-    <t>塞拉利昂粉-14-12=[16.14492]</t>
+    <t>塞拉利昂粉-14-12=[14.84864]</t>
   </si>
   <si>
     <t>FMG低品澳粉-14-12=[40.0]</t>
@@ -1274,7 +1271,7 @@
         <v>500</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>4.174266</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1643,7 +1640,7 @@
         <v>500</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>4.174266</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -2152,7 +2149,7 @@
         <v>500</v>
       </c>
       <c r="N28" s="1">
-        <v>12.5228</v>
+        <v>3.718342</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -2413,7 +2410,7 @@
         <v>300</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>0.5526915999999999</v>
       </c>
       <c r="T34" t="s">
         <v>148</v>
@@ -2633,7 +2630,7 @@
         <v>500</v>
       </c>
       <c r="N39" s="1">
-        <v>0</v>
+        <v>0.1988863</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -2923,7 +2920,7 @@
         <v>300</v>
       </c>
       <c r="N46" s="1">
-        <v>0</v>
+        <v>0.5526915999999999</v>
       </c>
       <c r="T46" t="s">
         <v>160</v>
@@ -3102,7 +3099,7 @@
         <v>500</v>
       </c>
       <c r="N50" s="1">
-        <v>0</v>
+        <v>0.2570375</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -3392,7 +3389,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="1">
-        <v>0</v>
+        <v>1.456512</v>
       </c>
       <c r="T57" t="s">
         <v>171</v>
@@ -3750,7 +3747,7 @@
         <v>800</v>
       </c>
       <c r="N65" s="1">
-        <v>0</v>
+        <v>2.076149</v>
       </c>
       <c r="T65" t="s">
         <v>179</v>
@@ -4208,7 +4205,7 @@
         <v>800</v>
       </c>
       <c r="N75" s="1">
-        <v>0</v>
+        <v>1.312939</v>
       </c>
       <c r="T75" t="s">
         <v>189</v>
@@ -4851,10 +4848,10 @@
         <v>566.5</v>
       </c>
       <c r="N89" s="1">
-        <v>11.26373</v>
+        <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -4886,7 +4883,7 @@
         <v>600.5</v>
       </c>
       <c r="N90" s="1">
-        <v>8.390973000000001</v>
+        <v>15</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -4898,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="T90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -4948,7 +4945,7 @@
         <v>12.5227971518525</v>
       </c>
       <c r="T91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -4998,7 +4995,7 @@
         <v>15</v>
       </c>
       <c r="T92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -5033,7 +5030,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N93" s="1">
-        <v>16.14492</v>
+        <v>14.84864</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -5045,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="T93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -5089,7 +5086,7 @@
         <v>40</v>
       </c>
       <c r="T94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -5139,7 +5136,7 @@
         <v>0.60154980513401</v>
       </c>
       <c r="T95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -5189,7 +5186,7 @@
         <v>2.5045594303705</v>
       </c>
       <c r="T96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -5236,7 +5233,7 @@
         <v>0.571471256027976</v>
       </c>
       <c r="T97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -5318,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <v>485.0324705378101</v>
+        <v>489.2533525189781</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>11</v>
@@ -5356,10 +5353,10 @@
         <v>0.18</v>
       </c>
       <c r="M100" s="1">
-        <v>485.0324705378101</v>
+        <v>489.2533525189781</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -5367,10 +5364,10 @@
         <v>99</v>
       </c>
       <c r="M101" s="1">
-        <v>485.0324705378101</v>
+        <v>489.2533525189781</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:20" s="1" customFormat="1">
@@ -5381,28 +5378,28 @@
         <v>115</v>
       </c>
       <c r="C102" s="1">
-        <v>55.90000191581774</v>
+        <v>55.90000090477773</v>
       </c>
       <c r="D102" s="1">
-        <v>5.409476629437501</v>
+        <v>4.5000000675375</v>
       </c>
       <c r="E102" s="1">
-        <v>2.33272882205</v>
+        <v>2.897264995189999</v>
       </c>
       <c r="F102" s="1">
-        <v>0.7708580982428573</v>
+        <v>0.9762019118428573</v>
       </c>
       <c r="G102" s="1">
-        <v>3.00000032769</v>
+        <v>3.00000014589</v>
       </c>
       <c r="H102" s="1">
-        <v>0.16553407738</v>
+        <v>0.1632088484</v>
       </c>
       <c r="I102" s="1">
-        <v>0.067777713201</v>
+        <v>0.07965211428500001</v>
       </c>
       <c r="J102" s="1">
-        <v>0.1648</v>
+        <v>0.16721795398</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -106,31 +106,31 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.0]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[15.0]</t>
-  </si>
-  <si>
-    <t>高返=[12.52]</t>
-  </si>
-  <si>
-    <t>过筛镍矿=[8.433883]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[12.37612]</t>
+    <t>巴西粗粉=[9.024054]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[12.65786]</t>
+  </si>
+  <si>
+    <t>高返=[12.5228]</t>
+  </si>
+  <si>
+    <t>过筛镍矿=[11.42506]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.69265]</t>
   </si>
   <si>
     <t>FMG低品澳粉=[40.0]</t>
   </si>
   <si>
-    <t>铁泥=[0.6]</t>
-  </si>
-  <si>
-    <t>干渣粉=[2.5]</t>
-  </si>
-  <si>
-    <t>重力除尘灰=[0.57]</t>
+    <t>铁泥=[0.6015498]</t>
+  </si>
+  <si>
+    <t>干渣粉=[2.504559]</t>
+  </si>
+  <si>
+    <t>重力除尘灰=[0.5714713]</t>
   </si>
   <si>
     <t>扣水</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8</v>
+        <v>9.024054</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>12.65786</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -709,13 +709,13 @@
         <v>500</v>
       </c>
       <c r="N4" s="1">
-        <v>12.52</v>
+        <v>12.5228</v>
       </c>
       <c r="O4">
-        <v>12.52</v>
+        <v>12.5227971518525</v>
       </c>
       <c r="P4">
-        <v>12.52</v>
+        <v>12.5227971518525</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>8.433883</v>
+        <v>11.42506</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>12.37612</v>
+        <v>10.69265</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -912,13 +912,13 @@
         <v>500</v>
       </c>
       <c r="N8" s="1">
-        <v>0.6</v>
+        <v>0.6015498</v>
       </c>
       <c r="O8">
-        <v>0.6</v>
+        <v>0.60154980513401</v>
       </c>
       <c r="P8">
-        <v>0.6</v>
+        <v>0.60154980513401</v>
       </c>
       <c r="T8" t="s">
         <v>36</v>
@@ -965,13 +965,13 @@
         <v>100</v>
       </c>
       <c r="N9" s="1">
-        <v>2.5</v>
+        <v>2.504559</v>
       </c>
       <c r="O9">
-        <v>2.5</v>
+        <v>2.5045594303705</v>
       </c>
       <c r="P9">
-        <v>2.5</v>
+        <v>2.5045594303705</v>
       </c>
       <c r="T9" t="s">
         <v>37</v>
@@ -1015,13 +1015,13 @@
         <v>500</v>
       </c>
       <c r="N10" s="1">
-        <v>0.57</v>
+        <v>0.5714713</v>
       </c>
       <c r="O10">
-        <v>0.57</v>
+        <v>0.571471256027976</v>
       </c>
       <c r="P10">
-        <v>0.57</v>
+        <v>0.571471256027976</v>
       </c>
       <c r="T10" t="s">
         <v>38</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>447.7335803922409</v>
+        <v>441.5683469381399</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>492.5133913808274</v>
+        <v>489.2084775199039</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>56.17628771644015</v>
+        <v>55.90000224902114</v>
       </c>
       <c r="D14">
-        <v>5.200008629899621</v>
+        <v>5.369648261561734</v>
       </c>
       <c r="E14">
-        <v>2.696032472759905</v>
+        <v>2.716377794219716</v>
       </c>
       <c r="F14">
-        <v>0.7124951765611619</v>
+        <v>0.7368325468082351</v>
       </c>
       <c r="G14">
-        <v>3.000000213744865</v>
+        <v>3.000000096516212</v>
       </c>
       <c r="H14">
-        <v>0.04849029522367876</v>
+        <v>0.04886863180171466</v>
       </c>
       <c r="I14">
-        <v>0.06761574284324438</v>
+        <v>0.06735284681322036</v>
       </c>
       <c r="J14">
-        <v>0.1322905085949946</v>
+        <v>0.1800000807958738</v>
       </c>
       <c r="M14" s="1">
-        <v>530.7152824694634</v>
+        <v>527.6535472905766</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[9.024054]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[12.65786]</t>
-  </si>
-  <si>
-    <t>高返=[12.5228]</t>
-  </si>
-  <si>
-    <t>过筛镍矿=[11.42506]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.69265]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[40.0]</t>
+    <t>巴西粗粉=[8.0]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[15.0]</t>
+  </si>
+  <si>
+    <t>高返=[15.0]</t>
+  </si>
+  <si>
+    <t>过筛镍矿=[10.13628]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.8142]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[37.37194]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>9.024054</v>
+        <v>8</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>12.65786</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -709,13 +709,13 @@
         <v>500</v>
       </c>
       <c r="N4" s="1">
-        <v>12.5228</v>
+        <v>15</v>
       </c>
       <c r="O4">
-        <v>12.5227971518525</v>
+        <v>12</v>
       </c>
       <c r="P4">
-        <v>12.5227971518525</v>
+        <v>15</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.42506</v>
+        <v>10.13628</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.69265</v>
+        <v>10.8142</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>40</v>
+        <v>37.37194</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>441.5683469381399</v>
+        <v>446.9809763903269</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>489.2084775199039</v>
+        <v>492.5141298150691</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.90000224902114</v>
+        <v>55.90000008250438</v>
       </c>
       <c r="D14">
-        <v>5.369648261561734</v>
+        <v>5.236030056155637</v>
       </c>
       <c r="E14">
-        <v>2.716377794219716</v>
+        <v>3.017202396475914</v>
       </c>
       <c r="F14">
-        <v>0.7368325468082351</v>
+        <v>0.8073956656896113</v>
       </c>
       <c r="G14">
-        <v>3.000000096516212</v>
+        <v>3.000000109516075</v>
       </c>
       <c r="H14">
-        <v>0.04886863180171466</v>
+        <v>0.05651876935747939</v>
       </c>
       <c r="I14">
-        <v>0.06735284681322036</v>
+        <v>0.06744924873359946</v>
       </c>
       <c r="J14">
-        <v>0.1800000807958738</v>
+        <v>0.1592563703426263</v>
       </c>
       <c r="M14" s="1">
-        <v>527.6535472905766</v>
+        <v>529.746545221832</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.0]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[15.0]</t>
-  </si>
-  <si>
-    <t>高返=[15.0]</t>
-  </si>
-  <si>
-    <t>过筛镍矿=[10.13628]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.8142]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[37.37194]</t>
+    <t>巴西粗粉=[8.00207]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.96564]</t>
+  </si>
+  <si>
+    <t>高返=[12.5228]</t>
+  </si>
+  <si>
+    <t>过筛镍矿=[11.41632]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.46641]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[38.94919]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8</v>
+        <v>8.00207</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>14.96564</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -709,13 +709,13 @@
         <v>500</v>
       </c>
       <c r="N4" s="1">
-        <v>15</v>
+        <v>12.5228</v>
       </c>
       <c r="O4">
-        <v>12</v>
+        <v>12.5227971518525</v>
       </c>
       <c r="P4">
-        <v>15</v>
+        <v>12.5227971518525</v>
       </c>
       <c r="T4" t="s">
         <v>32</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>10.13628</v>
+        <v>11.41632</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.8142</v>
+        <v>10.46641</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>37.37194</v>
+        <v>38.94919</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>446.9809763903269</v>
+        <v>443.4322815192997</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>492.5141298150691</v>
+        <v>491.2472389391946</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.90000008250438</v>
+        <v>55.96473999277051</v>
       </c>
       <c r="D14">
-        <v>5.236030056155637</v>
+        <v>5.240352723459761</v>
       </c>
       <c r="E14">
-        <v>3.017202396475914</v>
+        <v>2.718599751097087</v>
       </c>
       <c r="F14">
-        <v>0.8073956656896113</v>
+        <v>0.7383094980277902</v>
       </c>
       <c r="G14">
-        <v>3.000000109516075</v>
+        <v>2.997662822780275</v>
       </c>
       <c r="H14">
-        <v>0.05651876935747939</v>
+        <v>0.0488660186163447</v>
       </c>
       <c r="I14">
-        <v>0.06744924873359946</v>
+        <v>0.06680088465465768</v>
       </c>
       <c r="J14">
-        <v>0.1592563703426263</v>
+        <v>0.1798538267970188</v>
       </c>
       <c r="M14" s="1">
-        <v>529.746545221832</v>
+        <v>529.8260370179431</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.00207]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.96564]</t>
+    <t>巴西粗粉=[8.0]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[15.0]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.41632]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.46641]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.94919]</t>
+    <t>过筛镍矿=[11.42524]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.51358]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[38.8608]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.00207</v>
+        <v>8</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.96564</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.41632</v>
+        <v>11.42524</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.46641</v>
+        <v>10.51358</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.94919</v>
+        <v>38.8608</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4322815192997</v>
+        <v>443.4680453201162</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.2472389391946</v>
+        <v>491.3051904617602</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96473999277051</v>
+        <v>55.96527579466377</v>
       </c>
       <c r="D14">
-        <v>5.240352723459761</v>
+        <v>5.237141189115701</v>
       </c>
       <c r="E14">
-        <v>2.718599751097087</v>
+        <v>2.718739487947406</v>
       </c>
       <c r="F14">
-        <v>0.7383094980277902</v>
+        <v>0.7384167601515534</v>
       </c>
       <c r="G14">
-        <v>2.997662822780275</v>
+        <v>2.999999877463383</v>
       </c>
       <c r="H14">
-        <v>0.0488660186163447</v>
+        <v>0.04886784194936254</v>
       </c>
       <c r="I14">
-        <v>0.06680088465465768</v>
+        <v>0.06680975728274544</v>
       </c>
       <c r="J14">
-        <v>0.1798538267970188</v>
+        <v>0.1799999854654086</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8260370179431</v>
+        <v>529.8860205684502</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -109,19 +109,19 @@
     <t>巴西粗粉=[8.0]</t>
   </si>
   <si>
-    <t>高品澳粉=[15.0]</t>
+    <t>高品澳粉=[13.91427]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.42524]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.51358]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.8608]</t>
+    <t>过筛镍矿=[11.4245]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.46085]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[40.0]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>13.91427</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.42524</v>
+        <v>11.4245</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.51358</v>
+        <v>10.46085</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.8608</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4680453201162</v>
+        <v>442.0814476384141</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.3051904617602</v>
+        <v>489.8003896542826</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96527579466377</v>
+        <v>55.92476055864201</v>
       </c>
       <c r="D14">
-        <v>5.237141189115701</v>
+        <v>5.274970149791958</v>
       </c>
       <c r="E14">
-        <v>2.718739487947406</v>
+        <v>2.717797591399603</v>
       </c>
       <c r="F14">
-        <v>0.7384167601515534</v>
+        <v>0.7376830314837546</v>
       </c>
       <c r="G14">
-        <v>2.999999877463383</v>
+        <v>2.99999990828157</v>
       </c>
       <c r="H14">
-        <v>0.04886784194936254</v>
+        <v>0.04887097195789011</v>
       </c>
       <c r="I14">
-        <v>0.06680975728274544</v>
+        <v>0.06701576110056458</v>
       </c>
       <c r="J14">
-        <v>0.1799999854654086</v>
+        <v>0.179999945269689</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8860205684502</v>
+        <v>528.4514636077904</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>
